--- a/data/ReferenceErrorDetection_data.xlsx
+++ b/data/ReferenceErrorDetection_data.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6b78b8e360351019/_Dokumente/Studium/Master/Masterarbeit/_citation-verification/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_65A930B0D360D172BBDA3D11595ED87656C46049" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4477FF26-5A74-40AF-A3D5-441B043CB5AD}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_65A930B0D360D172BBDA3D11595ED87656C46049" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81ABE942-E438-4E55-8F46-D9F4F5C6AAC4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$251</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -5565,10 +5568,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5585,10 +5594,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5876,19 +5881,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K76" sqref="K76"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="70.5703125" customWidth="1"/>
+    <col min="8" max="8" width="49.85546875" customWidth="1"/>
     <col min="10" max="10" width="26" customWidth="1"/>
-    <col min="11" max="11" width="63.85546875" customWidth="1"/>
+    <col min="11" max="11" width="63.85546875" style="3" customWidth="1"/>
     <col min="13" max="13" width="12.140625" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5922,7 +5930,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -5944,7 +5952,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -5997,7 +6005,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -6050,7 +6058,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -6103,7 +6111,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -6156,7 +6164,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -6209,7 +6217,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -6262,7 +6270,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -6315,7 +6323,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -6368,7 +6376,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -6421,7 +6429,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -6474,7 +6482,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -6527,7 +6535,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -6580,7 +6588,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -6633,7 +6641,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -6686,7 +6694,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -6739,7 +6747,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -6792,7 +6800,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -6845,7 +6853,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -6898,7 +6906,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -6951,7 +6959,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -7004,7 +7012,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -7057,7 +7065,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -7110,7 +7118,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -7163,7 +7171,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -7216,7 +7224,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -7269,7 +7277,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -7322,7 +7330,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -7375,7 +7383,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -7428,7 +7436,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -7481,7 +7489,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -7534,7 +7542,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -7587,7 +7595,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -7640,7 +7648,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -7693,7 +7701,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -7746,7 +7754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -7799,7 +7807,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -7852,7 +7860,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -7905,7 +7913,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -7958,7 +7966,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -8011,7 +8019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -8064,7 +8072,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -8117,7 +8125,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -8170,7 +8178,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -8223,7 +8231,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -8276,7 +8284,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -8329,7 +8337,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -8382,7 +8390,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -8435,7 +8443,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -8488,7 +8496,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -8541,7 +8549,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -8594,7 +8602,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -8647,7 +8655,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -8700,7 +8708,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -8753,7 +8761,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -8806,7 +8814,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -8859,7 +8867,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -8912,7 +8920,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -8965,7 +8973,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -9018,7 +9026,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -9071,7 +9079,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -9124,7 +9132,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -9177,7 +9185,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -9230,7 +9238,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -9283,7 +9291,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -9336,7 +9344,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -9389,7 +9397,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -9442,7 +9450,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -9495,7 +9503,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -9548,7 +9556,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -9601,7 +9609,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -9654,7 +9662,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -9707,7 +9715,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -9760,7 +9768,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -9813,7 +9821,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -9866,7 +9874,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -9916,7 +9924,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>17</v>
       </c>
@@ -9969,7 +9977,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>17</v>
       </c>
@@ -10022,7 +10030,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>17</v>
       </c>
@@ -10075,7 +10083,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -10128,7 +10136,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>17</v>
       </c>
@@ -10181,7 +10189,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>541</v>
       </c>
@@ -10234,7 +10242,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>541</v>
       </c>
@@ -10287,7 +10295,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>541</v>
       </c>
@@ -10340,7 +10348,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>541</v>
       </c>
@@ -10393,7 +10401,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>541</v>
       </c>
@@ -10446,7 +10454,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>541</v>
       </c>
@@ -10499,7 +10507,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>541</v>
       </c>
@@ -10552,7 +10560,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>584</v>
       </c>
@@ -10583,7 +10591,7 @@
       <c r="J89" t="s">
         <v>590</v>
       </c>
-      <c r="K89" t="s">
+      <c r="K89" s="3" t="s">
         <v>591</v>
       </c>
       <c r="L89" t="s">
@@ -10636,7 +10644,7 @@
       <c r="J90" t="s">
         <v>600</v>
       </c>
-      <c r="K90" t="s">
+      <c r="K90" s="3" t="s">
         <v>601</v>
       </c>
       <c r="L90" t="s">
@@ -10689,7 +10697,7 @@
       <c r="J91" t="s">
         <v>610</v>
       </c>
-      <c r="K91" t="s">
+      <c r="K91" s="3" t="s">
         <v>611</v>
       </c>
       <c r="L91" t="s">
@@ -10742,7 +10750,7 @@
       <c r="J92" t="s">
         <v>620</v>
       </c>
-      <c r="K92" t="s">
+      <c r="K92" s="3" t="s">
         <v>621</v>
       </c>
       <c r="L92" t="s">
@@ -10764,7 +10772,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>624</v>
       </c>
@@ -10814,7 +10822,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>624</v>
       </c>
@@ -10864,7 +10872,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>624</v>
       </c>
@@ -10914,7 +10922,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>640</v>
       </c>
@@ -10945,7 +10953,7 @@
       <c r="J96" t="s">
         <v>647</v>
       </c>
-      <c r="K96" t="s">
+      <c r="K96" s="3" t="s">
         <v>648</v>
       </c>
       <c r="L96" t="s">
@@ -10967,7 +10975,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>640</v>
       </c>
@@ -11020,7 +11028,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>640</v>
       </c>
@@ -11070,7 +11078,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>640</v>
       </c>
@@ -11123,7 +11131,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>640</v>
       </c>
@@ -11176,7 +11184,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>640</v>
       </c>
@@ -11223,7 +11231,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>640</v>
       </c>
@@ -11304,7 +11312,7 @@
       <c r="J103" t="s">
         <v>708</v>
       </c>
-      <c r="K103" t="s">
+      <c r="K103" s="3" t="s">
         <v>709</v>
       </c>
       <c r="L103" t="s">
@@ -11323,7 +11331,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>640</v>
       </c>
@@ -11354,7 +11362,7 @@
       <c r="J104" t="s">
         <v>716</v>
       </c>
-      <c r="K104" t="s">
+      <c r="K104" s="3" t="s">
         <v>717</v>
       </c>
       <c r="L104" t="s">
@@ -11373,7 +11381,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>640</v>
       </c>
@@ -11454,7 +11462,7 @@
       <c r="J106" t="s">
         <v>732</v>
       </c>
-      <c r="K106" t="s">
+      <c r="K106" s="3" t="s">
         <v>733</v>
       </c>
       <c r="L106" t="s">
@@ -11473,7 +11481,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>640</v>
       </c>
@@ -11526,7 +11534,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>640</v>
       </c>
@@ -11576,7 +11584,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>640</v>
       </c>
@@ -11629,7 +11637,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>640</v>
       </c>
@@ -11679,7 +11687,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>640</v>
       </c>
@@ -11760,7 +11768,7 @@
       <c r="J112" t="s">
         <v>780</v>
       </c>
-      <c r="K112" t="s">
+      <c r="K112" s="3" t="s">
         <v>781</v>
       </c>
       <c r="L112" t="s">
@@ -11782,7 +11790,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>640</v>
       </c>
@@ -11832,7 +11840,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>640</v>
       </c>
@@ -11885,7 +11893,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>640</v>
       </c>
@@ -11935,7 +11943,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>640</v>
       </c>
@@ -11988,7 +11996,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>640</v>
       </c>
@@ -12038,7 +12046,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>640</v>
       </c>
@@ -12088,7 +12096,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>640</v>
       </c>
@@ -12141,7 +12149,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>640</v>
       </c>
@@ -12191,7 +12199,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>640</v>
       </c>
@@ -12241,7 +12249,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>640</v>
       </c>
@@ -12325,7 +12333,7 @@
       <c r="J123" t="s">
         <v>868</v>
       </c>
-      <c r="K123" t="s">
+      <c r="K123" s="3" t="s">
         <v>869</v>
       </c>
       <c r="L123" t="s">
@@ -12344,7 +12352,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>640</v>
       </c>
@@ -12397,7 +12405,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>640</v>
       </c>
@@ -12450,7 +12458,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>640</v>
       </c>
@@ -12503,7 +12511,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>640</v>
       </c>
@@ -12534,7 +12542,7 @@
       <c r="J127" t="s">
         <v>898</v>
       </c>
-      <c r="K127" t="s">
+      <c r="K127" s="3" t="s">
         <v>899</v>
       </c>
       <c r="L127" t="s">
@@ -12553,7 +12561,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>640</v>
       </c>
@@ -12637,7 +12645,7 @@
       <c r="J129" t="s">
         <v>911</v>
       </c>
-      <c r="K129" t="s">
+      <c r="K129" s="3" t="s">
         <v>912</v>
       </c>
       <c r="L129" t="s">
@@ -12656,7 +12664,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>640</v>
       </c>
@@ -12709,7 +12717,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>640</v>
       </c>
@@ -12793,7 +12801,7 @@
       <c r="J132" t="s">
         <v>935</v>
       </c>
-      <c r="K132" t="s">
+      <c r="K132" s="3" t="s">
         <v>936</v>
       </c>
       <c r="L132" t="s">
@@ -12812,7 +12820,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>640</v>
       </c>
@@ -12862,7 +12870,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>640</v>
       </c>
@@ -12912,7 +12920,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>640</v>
       </c>
@@ -12962,7 +12970,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>640</v>
       </c>
@@ -13012,7 +13020,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>640</v>
       </c>
@@ -13062,7 +13070,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>640</v>
       </c>
@@ -13115,7 +13123,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>640</v>
       </c>
@@ -13165,7 +13173,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>640</v>
       </c>
@@ -13218,7 +13226,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>640</v>
       </c>
@@ -13271,7 +13279,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>640</v>
       </c>
@@ -13321,7 +13329,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>640</v>
       </c>
@@ -13374,7 +13382,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>640</v>
       </c>
@@ -13424,7 +13432,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>640</v>
       </c>
@@ -13508,7 +13516,7 @@
       <c r="J146" t="s">
         <v>1044</v>
       </c>
-      <c r="K146" t="s">
+      <c r="K146" s="3" t="s">
         <v>1045</v>
       </c>
       <c r="L146" t="s">
@@ -13527,7 +13535,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>640</v>
       </c>
@@ -13580,7 +13588,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>640</v>
       </c>
@@ -13633,7 +13641,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>640</v>
       </c>
@@ -13686,7 +13694,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>640</v>
       </c>
@@ -13736,7 +13744,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>640</v>
       </c>
@@ -13789,7 +13797,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>640</v>
       </c>
@@ -13839,7 +13847,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>640</v>
       </c>
@@ -13889,7 +13897,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>640</v>
       </c>
@@ -13939,7 +13947,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>640</v>
       </c>
@@ -13989,7 +13997,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>640</v>
       </c>
@@ -14039,7 +14047,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>640</v>
       </c>
@@ -14089,7 +14097,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>640</v>
       </c>
@@ -14139,7 +14147,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>640</v>
       </c>
@@ -14189,7 +14197,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>640</v>
       </c>
@@ -14239,7 +14247,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>640</v>
       </c>
@@ -14289,7 +14297,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>640</v>
       </c>
@@ -14339,7 +14347,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>640</v>
       </c>
@@ -14389,7 +14397,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>640</v>
       </c>
@@ -14439,7 +14447,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>640</v>
       </c>
@@ -14489,7 +14497,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>640</v>
       </c>
@@ -14536,7 +14544,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>640</v>
       </c>
@@ -14583,7 +14591,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>640</v>
       </c>
@@ -14633,7 +14641,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>640</v>
       </c>
@@ -14683,7 +14691,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>640</v>
       </c>
@@ -14733,7 +14741,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>640</v>
       </c>
@@ -14783,7 +14791,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>640</v>
       </c>
@@ -14833,7 +14841,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>640</v>
       </c>
@@ -14883,7 +14891,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>640</v>
       </c>
@@ -14933,7 +14941,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>640</v>
       </c>
@@ -14983,7 +14991,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>640</v>
       </c>
@@ -15033,7 +15041,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>640</v>
       </c>
@@ -15083,7 +15091,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>640</v>
       </c>
@@ -15133,7 +15141,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>640</v>
       </c>
@@ -15183,7 +15191,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>640</v>
       </c>
@@ -15233,7 +15241,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>640</v>
       </c>
@@ -15283,7 +15291,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>640</v>
       </c>
@@ -15333,7 +15341,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>640</v>
       </c>
@@ -15383,7 +15391,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>640</v>
       </c>
@@ -15433,7 +15441,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>640</v>
       </c>
@@ -15483,7 +15491,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>640</v>
       </c>
@@ -15533,7 +15541,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>640</v>
       </c>
@@ -15583,7 +15591,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>640</v>
       </c>
@@ -15633,7 +15641,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>640</v>
       </c>
@@ -15683,7 +15691,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>640</v>
       </c>
@@ -15733,7 +15741,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>640</v>
       </c>
@@ -15783,7 +15791,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>640</v>
       </c>
@@ -15833,7 +15841,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>640</v>
       </c>
@@ -15883,7 +15891,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>640</v>
       </c>
@@ -15933,7 +15941,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>640</v>
       </c>
@@ -15983,7 +15991,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>640</v>
       </c>
@@ -16033,7 +16041,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>640</v>
       </c>
@@ -16083,7 +16091,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>640</v>
       </c>
@@ -16133,7 +16141,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>640</v>
       </c>
@@ -16183,7 +16191,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>640</v>
       </c>
@@ -16233,7 +16241,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>640</v>
       </c>
@@ -16283,7 +16291,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>640</v>
       </c>
@@ -16333,7 +16341,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>640</v>
       </c>
@@ -16383,7 +16391,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>640</v>
       </c>
@@ -16433,7 +16441,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>640</v>
       </c>
@@ -16483,7 +16491,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>640</v>
       </c>
@@ -16533,7 +16541,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>640</v>
       </c>
@@ -16583,7 +16591,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>640</v>
       </c>
@@ -16633,7 +16641,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>640</v>
       </c>
@@ -16683,7 +16691,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>640</v>
       </c>
@@ -16733,7 +16741,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>640</v>
       </c>
@@ -16783,7 +16791,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>640</v>
       </c>
@@ -16833,7 +16841,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>640</v>
       </c>
@@ -16883,7 +16891,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>640</v>
       </c>
@@ -16933,7 +16941,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>640</v>
       </c>
@@ -16983,7 +16991,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>640</v>
       </c>
@@ -17033,7 +17041,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>640</v>
       </c>
@@ -17083,7 +17091,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>640</v>
       </c>
@@ -17133,7 +17141,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>640</v>
       </c>
@@ -17183,7 +17191,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>640</v>
       </c>
@@ -17233,7 +17241,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>640</v>
       </c>
@@ -17283,7 +17291,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>640</v>
       </c>
@@ -17333,7 +17341,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>640</v>
       </c>
@@ -17383,7 +17391,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>640</v>
       </c>
@@ -17433,7 +17441,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>640</v>
       </c>
@@ -17483,7 +17491,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>640</v>
       </c>
@@ -17533,7 +17541,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>640</v>
       </c>
@@ -17583,7 +17591,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>640</v>
       </c>
@@ -17633,7 +17641,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>640</v>
       </c>
@@ -17683,7 +17691,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>640</v>
       </c>
@@ -17733,7 +17741,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>640</v>
       </c>
@@ -17783,7 +17791,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>640</v>
       </c>
@@ -17833,7 +17841,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>640</v>
       </c>
@@ -17883,7 +17891,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>640</v>
       </c>
@@ -17933,7 +17941,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>640</v>
       </c>
@@ -17983,7 +17991,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>640</v>
       </c>
@@ -18033,7 +18041,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>640</v>
       </c>
@@ -18083,7 +18091,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>640</v>
       </c>
@@ -18133,7 +18141,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>640</v>
       </c>
@@ -18183,7 +18191,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>640</v>
       </c>
@@ -18233,7 +18241,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>640</v>
       </c>
@@ -18283,7 +18291,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>640</v>
       </c>
@@ -18333,7 +18341,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>640</v>
       </c>
@@ -18383,7 +18391,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>640</v>
       </c>
@@ -18433,7 +18441,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>640</v>
       </c>
@@ -18483,7 +18491,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>640</v>
       </c>
@@ -18533,7 +18541,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>640</v>
       </c>
@@ -18583,7 +18591,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>640</v>
       </c>
@@ -18633,7 +18641,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>640</v>
       </c>
@@ -18683,7 +18691,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>640</v>
       </c>
@@ -18733,7 +18741,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>1790</v>
       </c>
@@ -18784,6 +18792,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q251" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="15">
+      <filters>
+        <filter val="Partially substantiate"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>